--- a/reg/informal.xlsx
+++ b/reg/informal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.252</t>
+    <t xml:space="preserve">-0.935</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">-1.750***</t>
+    <t xml:space="preserve">-1.194***</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(1.124)</t>
+    <t xml:space="preserve">(1.039)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.012)</t>
@@ -65,94 +65,106 @@
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">7.500***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.846*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.549***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.793)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.883)</t>
+    <t xml:space="preserve">6.066***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.118***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.100***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.750)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.797)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.008)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.894)</t>
+    <t xml:space="preserve">(0.146)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_LABOUR</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.163***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.676***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.199***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.261)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.418)</t>
+    <t xml:space="preserve">-1.073***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.530***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.137***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.241)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.366)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.002)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.349)</t>
+    <t xml:space="preserve">(0.167)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_BUSINESS</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.295***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.156)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.306)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.254)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.266*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.203)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.106)</t>
+    <t xml:space="preserve">1.285***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.078***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.267+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.183)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.298)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.144)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.056)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.064)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.023)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -170,25 +182,25 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.686</t>
+    <t xml:space="preserve">0.308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.694</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114</t>
+    <t xml:space="preserve">0.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137</t>
   </si>
 </sst>
 </file>
@@ -738,16 +750,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -761,70 +773,70 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -833,13 +845,13 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/reg/informal.xlsx
+++ b/reg/informal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,127 +44,127 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.935</t>
+    <t xml:space="preserve">-0.278</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">-1.194***</t>
+    <t xml:space="preserve">-0.187</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(1.039)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.012)</t>
+    <t xml:space="preserve">(0.181)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.061)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">6.066***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.118***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.100***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.750)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.797)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.146)</t>
+    <t xml:space="preserve">0.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.130)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.240)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.766)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.073)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_LABOUR</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.073***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.530***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.137***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.241)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.366)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.167)</t>
+    <t xml:space="preserve">0.071+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.056**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.042)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.052)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.247)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.017)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_BUSINESS</t>
   </si>
   <si>
-    <t xml:space="preserve">1.285***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.078***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.267+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.183)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.298)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.144)</t>
+    <t xml:space="preserve">0.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.034+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.032)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.188)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.038)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_MARKET</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.056)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.064)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.023)</t>
+    <t xml:space="preserve">0.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.057)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.003)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -182,25 +182,19 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.694</t>
+    <t xml:space="preserve">0.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137</t>
+    <t xml:space="preserve">0.009</t>
   </si>
 </sst>
 </file>
@@ -733,10 +727,10 @@
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -744,16 +738,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
         <v>45</v>
@@ -767,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -828,7 +822,7 @@
         <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -836,7 +830,7 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -845,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/reg/informal.xlsx
+++ b/reg/informal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,127 +44,220 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.278</t>
+    <t xml:space="preserve">-0.207</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">-0.187</t>
+    <t xml:space="preserve">-0.130</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.181)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.061)</t>
+    <t xml:space="preserve">(0.216)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.248)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.130)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.240)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.766)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.073)</t>
+    <t xml:space="preserve">0.097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.141)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.229)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.818)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.069)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INFRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.035)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.045)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.204)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_ICT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.068)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.093)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.396)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.071*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.081)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.146)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.470)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.029)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_LABOUR</t>
   </si>
   <si>
-    <t xml:space="preserve">0.071+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.056**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.042)</t>
+    <t xml:space="preserve">0.090+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.033***</t>
   </si>
   <si>
     <t xml:space="preserve">(0.052)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.247)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.017)</t>
+    <t xml:space="preserve">(0.051)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.301)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.005)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_BUSINESS</t>
   </si>
   <si>
-    <t xml:space="preserve">0.016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.034+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.032)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.188)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.038)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_MARKET</t>
+    <t xml:space="preserve">-0.041*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.036)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.210)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INNOVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.005</t>
   </si>
   <si>
     <t xml:space="preserve">0.010</t>
   </si>
   <si>
-    <t xml:space="preserve">0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.057)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.003)</t>
+    <t xml:space="preserve">0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.007)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.088)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.011)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -173,28 +266,25 @@
     <t xml:space="preserve">Num.Obs.</t>
   </si>
   <si>
-    <t xml:space="preserve">469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470</t>
+    <t xml:space="preserve">453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">454</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.047</t>
+    <t xml:space="preserve">0.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.050</t>
   </si>
   <si>
     <t xml:space="preserve">0.000</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009</t>
   </si>
 </sst>
 </file>
@@ -698,16 +788,16 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -721,16 +811,16 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -738,22 +828,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
         <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -761,42 +851,42 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>49</v>
-      </c>
-      <c r="G11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
       </c>
       <c r="G12" t="s">
         <v>54</v>
@@ -804,22 +894,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
       </c>
       <c r="G13" t="s">
         <v>58</v>
@@ -827,25 +917,209 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
       <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>58</v>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/reg/informal.xlsx
+++ b/reg/informal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,220 +44,127 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.207</t>
+    <t xml:space="preserve">-0.935</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">-0.130</t>
+    <t xml:space="preserve">-1.194***</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.216)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.248)</t>
+    <t xml:space="preserve">(1.039)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.012)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">0.097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.141)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.229)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.818)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.069)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_INFRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.035)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.045)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.204)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.022)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_ICT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.068)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.093)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.396)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_SKILLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.087</t>
+    <t xml:space="preserve">6.066***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.118***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.100***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.750)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.797)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.146)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_LABOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.073***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.530***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.137***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.241)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.366)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.167)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_BUSINESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.285***</t>
   </si>
   <si>
     <t xml:space="preserve">-0.025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.071*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.081)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.146)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.470)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.029)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_LABOUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.090+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.033***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.052)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.051)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.301)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.006)</t>
+    <t xml:space="preserve">1.078***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.267+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.183)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.298)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.144)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_MARKET</t>
   </si>
   <si>
-    <t xml:space="preserve">0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_BUSINESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.041*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.036)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.210)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_INNOVATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.088)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.011)</t>
+    <t xml:space="preserve">0.499***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.056)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.064)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.023)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -266,25 +173,34 @@
     <t xml:space="preserve">Num.Obs.</t>
   </si>
   <si>
-    <t xml:space="preserve">453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">454</t>
+    <t xml:space="preserve">469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000</t>
+    <t xml:space="preserve">0.308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.694</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137</t>
   </si>
 </sst>
 </file>
@@ -788,16 +704,16 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -811,13 +727,13 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -840,10 +756,10 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -857,36 +773,36 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
         <v>54</v>
@@ -894,232 +810,48 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>61</v>
       </c>
       <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
         <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/reg/informal.xlsx
+++ b/reg/informal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,220 +44,226 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.207</t>
+    <t xml:space="preserve">5.037***</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">-0.130</t>
+    <t xml:space="preserve">4.015***</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.216)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.248)</t>
+    <t xml:space="preserve">(1.026)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.013)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">0.097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.141)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.229)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.818)</t>
+    <t xml:space="preserve">4.888***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.021***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.545***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.672)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.710)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.085)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INFRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.447+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.039***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.167)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.241)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.089)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_ICT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.599+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.324)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.352)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.627***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.261***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.765***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.431***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.385)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.524)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.087)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_LABOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.655**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.600***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.247)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.276)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.219)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.311***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.339***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.257***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.057)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.069)</t>
   </si>
   <si>
-    <t xml:space="preserve">LIDSD_INFRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.035)</t>
+    <t xml:space="preserve">(0.001)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.045)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.204)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.022)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_ICT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.068)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.093)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.396)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_SKILLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.071*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.081)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.146)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.470)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.029)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_LABOUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.090+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.033***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.052)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.051)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.301)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_MARKET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.005)</t>
-  </si>
-  <si>
     <t xml:space="preserve">LIDSD_BUSINESS</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.041*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.036)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.210)</t>
+    <t xml:space="preserve">0.646***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.596***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.172)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.401)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.038)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_INNOVATION</t>
   </si>
   <si>
-    <t xml:space="preserve">0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.088)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.011)</t>
+    <t xml:space="preserve">0.784***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.677***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.269*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.072)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.116)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -275,16 +281,25 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000</t>
+    <t xml:space="preserve">0.517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.751</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271</t>
   </si>
 </sst>
 </file>
@@ -788,16 +803,16 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -811,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
@@ -840,10 +855,10 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -857,16 +872,16 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -874,22 +889,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -897,22 +912,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -920,22 +935,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -943,22 +958,22 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +981,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -989,22 +1004,22 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -1012,22 +1027,22 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -1035,76 +1050,76 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1113,13 +1128,13 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
